--- a/example.xlsx
+++ b/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -20,7 +20,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>DOB</t>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>Phone</t>
@@ -60,6 +60,156 @@
   </si>
   <si>
     <t>123456789</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>35903.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Ram</t>
+  </si>
+  <si>
+    <t>36269.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>37598.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>38380.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>36386.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>36934.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>36060.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>35387.0</t>
+  </si>
+  <si>
+    <t>sam@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-04-18</t>
+  </si>
+  <si>
+    <t>5.432109876E9</t>
+  </si>
+  <si>
+    <t>ram123@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-04-19</t>
+  </si>
+  <si>
+    <t>2.34516789E9</t>
+  </si>
+  <si>
+    <t>tom45@yahoo.com</t>
+  </si>
+  <si>
+    <t>2002-12-08</t>
+  </si>
+  <si>
+    <t>4.32198765E9</t>
+  </si>
+  <si>
+    <t>jill18@gmail.com</t>
+  </si>
+  <si>
+    <t>2005-01-28</t>
+  </si>
+  <si>
+    <t>9.087654321E9</t>
+  </si>
+  <si>
+    <t>johnson@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-08-14</t>
+  </si>
+  <si>
+    <t>9.980765342E9</t>
+  </si>
+  <si>
+    <t>james91@yahoo.com</t>
+  </si>
+  <si>
+    <t>2001-02-12</t>
+  </si>
+  <si>
+    <t>3.12458679E9</t>
+  </si>
+  <si>
+    <t>william@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-09-22</t>
+  </si>
+  <si>
+    <t>7.612345908E9</t>
+  </si>
+  <si>
+    <t>vijay@gmail.com</t>
+  </si>
+  <si>
+    <t>1996-11-18</t>
+  </si>
+  <si>
+    <t>5.678905432E9</t>
+  </si>
+  <si>
+    <t>chiragnackathaya</t>
+  </si>
+  <si>
+    <t>cnk@123</t>
   </si>
 </sst>
 </file>
@@ -104,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -166,6 +316,1092 @@
         <v>15</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0"/>
+      <c r="D7" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0"/>
+      <c r="D8" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0"/>
+      <c r="D9" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C10" s="0"/>
+      <c r="D10" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C11" s="0"/>
+      <c r="D11" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0"/>
+      <c r="D12" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C13" s="0"/>
+      <c r="D13" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C14" s="0"/>
+      <c r="D14" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C15" s="0"/>
+      <c r="D15" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C16" s="0"/>
+      <c r="D16" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C17" s="0"/>
+      <c r="D17" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C18" s="0"/>
+      <c r="D18" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C19" s="0"/>
+      <c r="D19" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C21" s="0"/>
+      <c r="D21" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C22" s="0"/>
+      <c r="D22" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="C23" s="0"/>
+      <c r="D23" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C24" s="0"/>
+      <c r="D24" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C25" s="0"/>
+      <c r="D25" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="D28" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
